--- a/outputs/ML_Results/dist_LR/All_short_edit_new.xlsx
+++ b/outputs/ML_Results/dist_LR/All_short_edit_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41C9E7-6F5E-4B82-9144-7BC26A1FAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC024C61-8076-4CA2-89D0-9D082AA762F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Germany_other</t>
   </si>
   <si>
-    <t>AME</t>
-  </si>
-  <si>
     <t>FR, other</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Commercial area (%)</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -149,8 +149,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -641,11 +641,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -691,7 +691,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1003,11 +1014,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1020,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,6 +1047,9 @@
       <c r="C2">
         <v>28.017640216219998</v>
       </c>
+      <c r="D2">
+        <v>1.0204032324921E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1042,7 +1059,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7909.0116686668298</v>
+        <v>79.090116686668296</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.7878248469845001E-6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,6 +1075,9 @@
       <c r="C4">
         <v>201.597600243069</v>
       </c>
+      <c r="D4" s="1">
+        <v>9.7569804659208492E-22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1063,6 +1086,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="D5">
+        <v>0.10000738925694599</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1071,6 +1097,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>0.37787658757000298</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1079,6 +1108,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>0.56428481266314001</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1090,6 +1122,9 @@
       <c r="C8">
         <v>-22.1095915184092</v>
       </c>
+      <c r="D8">
+        <v>1.6875320044277E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1098,6 +1133,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="D9">
+        <v>0.118755385195439</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1106,6 +1144,9 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="D10">
+        <v>0.11829367893978</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1114,6 +1155,9 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="D11">
+        <v>0.333856453298147</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1122,6 +1166,9 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>0.43859392549689302</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1130,6 +1177,9 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="D13">
+        <v>0.68750269259430397</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1139,7 +1189,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>9926.2924697681901</v>
+        <v>99.262924697681896</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.6233938774840199E-10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,6 +1205,9 @@
       <c r="C15">
         <v>126.72900357094299</v>
       </c>
+      <c r="D15" s="1">
+        <v>3.6164345797311999E-7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1163,78 +1219,105 @@
       <c r="C16">
         <v>73.214000021661306</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2.0670974446863499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>-2.17825604505315E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>9.1682875584232895E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
-        <v>4.1115794376998997E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>41.115794376998998</v>
+      </c>
+      <c r="D18">
+        <v>4.11943559476095E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0.48045621288448098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0.60649022593106805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0.72558367554949399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0.686456592526141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0.108948822250751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0.25085575446429198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1242,10 +1325,13 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>4833.3473977446301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48.333473977446303</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.3995418555903801E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1255,8 +1341,11 @@
       <c r="C26">
         <v>115.168667289852</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <v>4.7390040254684597E-25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1266,27 +1355,36 @@
       <c r="C27">
         <v>150.75498997610501</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <v>7.5927164532319699E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>-1.2985754142866301E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>6.3011403897172802E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0.753392082855739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1296,51 +1394,69 @@
       <c r="C30">
         <v>-8.8458470616912201</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>1.1572209729256201E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>9.7171551366427202</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>5.7674243876244702E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0.40519927409259598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.181696043207527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>0.38865511104418499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>0.53469131553673499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1348,93 +1464,126 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>25001.7763440952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250.017763440952</v>
+      </c>
+      <c r="D36">
+        <v>4.7006483361930203E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>0.52608021706468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>0.63317990042070904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>0.27331202229777302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>0.51964216367625005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>-59.027464226607599</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>9.5521901441497095E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>0.152709410144516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>0.54290495615840395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>0.65881709945066802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>0.25339446359296902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>0.36578769885802398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1442,10 +1591,13 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>7872.6375829873296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78.726375829873206</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4.97642411309214E-13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1455,32 +1607,44 @@
       <c r="C48">
         <v>159.445534852523</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>1.3793290486130299E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>0.52163679996619505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>0.362191166054258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>0.68253774258113098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1490,8 +1654,11 @@
       <c r="C52">
         <v>-24.109673099068999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>6.1995887895473404E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1501,8 +1668,11 @@
       <c r="C53">
         <v>9.7081301542333698</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>2.8644169800053E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1512,32 +1682,44 @@
       <c r="C54">
         <v>26.539814251408899</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>2.6654778838267699E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>0.45107811346296101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>0.104457270858868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>0.22610055719078301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1545,10 +1727,13 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>3550.9539350541199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35.509539350541203</v>
+      </c>
+      <c r="D58">
+        <v>1.7135357392920999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1558,56 +1743,77 @@
       <c r="C59">
         <v>165.64139655086601</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <v>1.59762460131135E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>0.48408625480055301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>0.33642844809887601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>0.72627308848767802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>0.49829767113652201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>0.29582996866087502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>0.111109459879273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1617,8 +1823,11 @@
       <c r="C66">
         <v>-16.5331358897946</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>2.1842827370075701E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1628,8 +1837,17 @@
       <c r="C67">
         <v>-14.415486437653501</v>
       </c>
+      <c r="D67">
+        <v>3.1254340778188901E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0.05</formula>
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1640,7 +1858,7 @@
   <dimension ref="B1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,18 +1868,18 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1676,10 +1894,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1697,13 +1915,13 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>79.090116686668296</v>
       </c>
       <c r="D4" s="4">
-        <v>99.26292469768191</v>
+        <v>99.262924697681896</v>
       </c>
       <c r="E4" s="4">
         <v>48.333473977446303</v>
@@ -1712,7 +1930,7 @@
         <v>250.017763440952</v>
       </c>
       <c r="G4" s="4">
-        <v>78.726375829873291</v>
+        <v>78.726375829873206</v>
       </c>
       <c r="H4" s="4">
         <v>35.509539350541203</v>
@@ -1720,7 +1938,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <v>201.597600243069</v>
@@ -1741,7 +1959,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -1756,7 +1974,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="7">
@@ -1771,11 +1989,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f>1000000*0.000041115794376999</f>
         <v>41.115794376998998</v>
       </c>
       <c r="E8" s="4"/>
@@ -1785,7 +2002,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>-22.1095915184092</v>
@@ -1804,7 +2021,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1819,7 +2036,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1832,7 +2049,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1845,7 +2062,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
